--- a/CDSJA.xlsx
+++ b/CDSJA.xlsx
@@ -65,9 +65,6 @@
     <t>Product Description</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Pay Amount</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -104,10 +98,17 @@
     <t>918800968475</t>
   </si>
   <si>
-    <t>Balance</t>
-  </si>
-  <si>
     <t>CDSJA</t>
+  </si>
+  <si>
+    <t>Amount 
+Paid by customer</t>
+  </si>
+  <si>
+    <t>Actual Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance to pay </t>
   </si>
 </sst>
 </file>
@@ -159,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -426,18 +427,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,18 +464,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,6 +513,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -800,74 +826,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:J9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="24">
         <v>44204</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
@@ -876,337 +904,337 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="3" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>1</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19">
+        <v>3000</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
+        <v>2990</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>2</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19">
+        <v>2400</v>
+      </c>
+      <c r="H17" s="19">
         <v>1</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23">
+      <c r="I17" s="19">
+        <v>2400</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19">
         <v>3000</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H19" s="19">
         <v>1</v>
       </c>
-      <c r="I15" s="23">
-        <v>2990</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="22"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>2</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23">
-        <v>2400</v>
-      </c>
-      <c r="H17" s="23">
-        <v>1</v>
-      </c>
-      <c r="I17" s="23">
-        <v>2400</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
-        <v>3</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23">
-        <v>3000</v>
-      </c>
-      <c r="H19" s="23">
-        <v>1</v>
-      </c>
-      <c r="I19" s="23">
+      <c r="I19" s="19">
         <v>6500</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="23"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21">
+      <c r="D21" s="3"/>
+      <c r="E21" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17">
         <v>8400</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="9">
         <f>SUM(I15:I20)</f>
         <v>11890</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="5"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="15">
+      <c r="D23" s="3"/>
+      <c r="E23" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="11">
         <v>3590</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="5"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="5"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="3"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -1281,7 +1309,10 @@
       <c r="J31" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="50">
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="E21:F22"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
@@ -1320,7 +1351,6 @@
     <mergeCell ref="G23:I24"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="M17:M18"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
